--- a/layout.xlsx
+++ b/layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louii\Documents\GI-mathematical-modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54371335-6A90-4E26-9577-FB076D226BFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA92091-E601-4C06-BF7D-F0591D6AB40E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{938266CA-C693-4F1C-9F30-5EF73C736C15}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{938266CA-C693-4F1C-9F30-5EF73C736C15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F573FB33-5960-4B30-A71F-4BBF52E7993B}">
-  <dimension ref="A1:BI56"/>
+  <dimension ref="A1:BI67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2824,6 +2824,475 @@
         <v>-70.677999999999997</v>
       </c>
     </row>
+    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f>B63+1</f>
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63" si="4">C63+1</f>
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63" si="5">D63+1</f>
+        <v>4</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63" si="6">E63+1</f>
+        <v>5</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63" si="7">F63+1</f>
+        <v>6</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63" si="8">G63+1</f>
+        <v>7</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63" si="9">H63+1</f>
+        <v>8</v>
+      </c>
+      <c r="J63">
+        <f t="shared" ref="J63" si="10">I63+1</f>
+        <v>9</v>
+      </c>
+      <c r="K63">
+        <f t="shared" ref="K63" si="11">J63+1</f>
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <f t="shared" ref="L63" si="12">K63+1</f>
+        <v>11</v>
+      </c>
+      <c r="M63">
+        <f t="shared" ref="M63" si="13">L63+1</f>
+        <v>12</v>
+      </c>
+      <c r="N63">
+        <f t="shared" ref="N63" si="14">M63+1</f>
+        <v>13</v>
+      </c>
+      <c r="O63">
+        <f t="shared" ref="O63" si="15">N63+1</f>
+        <v>14</v>
+      </c>
+      <c r="P63">
+        <f t="shared" ref="P63" si="16">O63+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" ref="Q63" si="17">P63+1</f>
+        <v>16</v>
+      </c>
+      <c r="R63">
+        <f t="shared" ref="R63" si="18">Q63+1</f>
+        <v>17</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ref="S63" si="19">R63+1</f>
+        <v>18</v>
+      </c>
+      <c r="T63">
+        <f t="shared" ref="T63" si="20">S63+1</f>
+        <v>19</v>
+      </c>
+      <c r="U63">
+        <f t="shared" ref="U63" si="21">T63+1</f>
+        <v>20</v>
+      </c>
+      <c r="V63">
+        <f t="shared" ref="V63" si="22">U63+1</f>
+        <v>21</v>
+      </c>
+      <c r="W63">
+        <f t="shared" ref="W63" si="23">V63+1</f>
+        <v>22</v>
+      </c>
+      <c r="X63">
+        <f t="shared" ref="X63" si="24">W63+1</f>
+        <v>23</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" ref="Y63" si="25">X63+1</f>
+        <v>24</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" ref="Z63" si="26">Y63+1</f>
+        <v>25</v>
+      </c>
+      <c r="AA63">
+        <f t="shared" ref="AA63" si="27">Z63+1</f>
+        <v>26</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" ref="AB63" si="28">AA63+1</f>
+        <v>27</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" ref="AC63" si="29">AB63+1</f>
+        <v>28</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" ref="AD63" si="30">AC63+1</f>
+        <v>29</v>
+      </c>
+      <c r="AE63">
+        <f t="shared" ref="AE63" si="31">AD63+1</f>
+        <v>30</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" ref="AF63" si="32">AE63+1</f>
+        <v>31</v>
+      </c>
+      <c r="AG63">
+        <f t="shared" ref="AG63" si="33">AF63+1</f>
+        <v>32</v>
+      </c>
+      <c r="AH63">
+        <f t="shared" ref="AH63" si="34">AG63+1</f>
+        <v>33</v>
+      </c>
+      <c r="AI63">
+        <f t="shared" ref="AI63" si="35">AH63+1</f>
+        <v>34</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" ref="AJ63" si="36">AI63+1</f>
+        <v>35</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" ref="AK63" si="37">AJ63+1</f>
+        <v>36</v>
+      </c>
+      <c r="AL63">
+        <f t="shared" ref="AL63" si="38">AK63+1</f>
+        <v>37</v>
+      </c>
+      <c r="AM63">
+        <f t="shared" ref="AM63" si="39">AL63+1</f>
+        <v>38</v>
+      </c>
+      <c r="AN63">
+        <f t="shared" ref="AN63" si="40">AM63+1</f>
+        <v>39</v>
+      </c>
+      <c r="AO63">
+        <f t="shared" ref="AO63" si="41">AN63+1</f>
+        <v>40</v>
+      </c>
+      <c r="AP63">
+        <f t="shared" ref="AP63" si="42">AO63+1</f>
+        <v>41</v>
+      </c>
+      <c r="AQ63">
+        <f t="shared" ref="AQ63" si="43">AP63+1</f>
+        <v>42</v>
+      </c>
+      <c r="AR63">
+        <f t="shared" ref="AR63" si="44">AQ63+1</f>
+        <v>43</v>
+      </c>
+      <c r="AS63">
+        <f t="shared" ref="AS63" si="45">AR63+1</f>
+        <v>44</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" ref="AT63" si="46">AS63+1</f>
+        <v>45</v>
+      </c>
+      <c r="AU63">
+        <f t="shared" ref="AU63" si="47">AT63+1</f>
+        <v>46</v>
+      </c>
+      <c r="AV63">
+        <f t="shared" ref="AV63" si="48">AU63+1</f>
+        <v>47</v>
+      </c>
+      <c r="AW63">
+        <f t="shared" ref="AW63" si="49">AV63+1</f>
+        <v>48</v>
+      </c>
+      <c r="AX63">
+        <f t="shared" ref="AX63" si="50">AW63+1</f>
+        <v>49</v>
+      </c>
+      <c r="AY63">
+        <f t="shared" ref="AY63" si="51">AX63+1</f>
+        <v>50</v>
+      </c>
+      <c r="AZ63">
+        <f t="shared" ref="AZ63" si="52">AY63+1</f>
+        <v>51</v>
+      </c>
+      <c r="BA63">
+        <f t="shared" ref="BA63" si="53">AZ63+1</f>
+        <v>52</v>
+      </c>
+      <c r="BB63">
+        <f t="shared" ref="BB63" si="54">BA63+1</f>
+        <v>53</v>
+      </c>
+      <c r="BC63">
+        <f t="shared" ref="BC63" si="55">BB63+1</f>
+        <v>54</v>
+      </c>
+      <c r="BD63">
+        <f t="shared" ref="BD63" si="56">BC63+1</f>
+        <v>55</v>
+      </c>
+      <c r="BE63">
+        <f t="shared" ref="BE63" si="57">BD63+1</f>
+        <v>56</v>
+      </c>
+      <c r="BF63">
+        <f t="shared" ref="BF63" si="58">BE63+1</f>
+        <v>57</v>
+      </c>
+      <c r="BG63">
+        <f t="shared" ref="BG63" si="59">BF63+1</f>
+        <v>58</v>
+      </c>
+      <c r="BH63">
+        <f t="shared" ref="BH63" si="60">BG63+1</f>
+        <v>59</v>
+      </c>
+      <c r="BI63">
+        <f t="shared" ref="BI63" si="61">BH63+1</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>-70.37</v>
+      </c>
+      <c r="C64">
+        <v>-70.367999999999995</v>
+      </c>
+      <c r="D64">
+        <v>-70.432000000000002</v>
+      </c>
+      <c r="E64">
+        <v>-70.436000000000007</v>
+      </c>
+      <c r="F64">
+        <v>-70.369</v>
+      </c>
+      <c r="G64">
+        <v>-70.427999999999997</v>
+      </c>
+      <c r="H64">
+        <v>-70.37</v>
+      </c>
+      <c r="I64">
+        <v>-70.427999999999997</v>
+      </c>
+      <c r="J64">
+        <v>-70.375</v>
+      </c>
+      <c r="K64">
+        <v>-70.433000000000007</v>
+      </c>
+      <c r="L64">
+        <v>-70.373000000000005</v>
+      </c>
+      <c r="M64">
+        <v>-70.454999999999998</v>
+      </c>
+      <c r="N64">
+        <v>-70.631</v>
+      </c>
+      <c r="O64">
+        <v>-70.635000000000005</v>
+      </c>
+      <c r="P64">
+        <v>-70.647000000000006</v>
+      </c>
+      <c r="Q64">
+        <v>-70.632000000000005</v>
+      </c>
+      <c r="R64">
+        <v>-70.546000000000006</v>
+      </c>
+      <c r="S64">
+        <v>-70.528000000000006</v>
+      </c>
+      <c r="T64">
+        <v>-70.527000000000001</v>
+      </c>
+      <c r="U64">
+        <v>-70.531999999999996</v>
+      </c>
+      <c r="V64">
+        <v>-70.542000000000002</v>
+      </c>
+      <c r="W64">
+        <v>-70.492999999999995</v>
+      </c>
+      <c r="X64">
+        <v>-70.543999999999997</v>
+      </c>
+      <c r="Y64">
+        <v>-70.686999999999998</v>
+      </c>
+      <c r="Z64">
+        <v>-70.668000000000006</v>
+      </c>
+      <c r="AA64">
+        <v>-70.646000000000001</v>
+      </c>
+      <c r="AB64">
+        <v>-70.629000000000005</v>
+      </c>
+      <c r="AC64">
+        <v>-70.626000000000005</v>
+      </c>
+      <c r="AD64">
+        <v>-70.629000000000005</v>
+      </c>
+      <c r="AE64">
+        <v>-70.632999999999996</v>
+      </c>
+      <c r="AF64">
+        <v>-70.635999999999996</v>
+      </c>
+      <c r="AG64">
+        <v>-70.751000000000005</v>
+      </c>
+      <c r="AH64">
+        <v>-70.744</v>
+      </c>
+      <c r="AI64">
+        <v>-70.73</v>
+      </c>
+      <c r="AJ64">
+        <v>-70.72</v>
+      </c>
+      <c r="AK64">
+        <v>-70.715999999999994</v>
+      </c>
+      <c r="AL64">
+        <v>-70.718000000000004</v>
+      </c>
+      <c r="AM64">
+        <v>-70.72</v>
+      </c>
+      <c r="AN64">
+        <v>-70.721999999999994</v>
+      </c>
+      <c r="AO64">
+        <v>-70.819999999999993</v>
+      </c>
+      <c r="AP64">
+        <v>-70.814999999999998</v>
+      </c>
+      <c r="AQ64">
+        <v>-70.807000000000002</v>
+      </c>
+      <c r="AR64">
+        <v>-70.8</v>
+      </c>
+      <c r="AS64">
+        <v>-70.796999999999997</v>
+      </c>
+      <c r="AT64">
+        <v>-70.796999999999997</v>
+      </c>
+      <c r="AU64">
+        <v>-70.796999999999997</v>
+      </c>
+      <c r="AV64">
+        <v>-70.798000000000002</v>
+      </c>
+      <c r="AW64">
+        <v>-70.855000000000004</v>
+      </c>
+      <c r="AX64">
+        <v>-70.867999999999995</v>
+      </c>
+      <c r="AY64">
+        <v>-70.873000000000005</v>
+      </c>
+      <c r="AZ64">
+        <v>-70.867999999999995</v>
+      </c>
+      <c r="BA64">
+        <v>-70.866</v>
+      </c>
+      <c r="BB64">
+        <v>-70.864000000000004</v>
+      </c>
+      <c r="BC64">
+        <v>-70.853999999999999</v>
+      </c>
+      <c r="BD64">
+        <v>-70.837000000000003</v>
+      </c>
+      <c r="BE64">
+        <v>-70.909000000000006</v>
+      </c>
+      <c r="BF64">
+        <v>-70.906000000000006</v>
+      </c>
+      <c r="BG64">
+        <v>-70.903000000000006</v>
+      </c>
+      <c r="BH64">
+        <v>-70.900000000000006</v>
+      </c>
+      <c r="BI64">
+        <v>-70.897999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>-71.022999999999996</v>
+      </c>
+      <c r="C66">
+        <v>-71.022999999999996</v>
+      </c>
+      <c r="D66">
+        <v>-71.022999999999996</v>
+      </c>
+      <c r="E66">
+        <v>-71.022999999999996</v>
+      </c>
+      <c r="J66">
+        <v>-71.022999999999996</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>7</v>
+      </c>
+      <c r="O66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>-71.039000000000001</v>
+      </c>
+      <c r="C67">
+        <v>-71.037999999999997</v>
+      </c>
+      <c r="D67">
+        <v>-71.037000000000006</v>
+      </c>
+      <c r="E67">
+        <v>-71.037000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
